--- a/SO SACH/2016 - 2018/2017/141 - 17.xlsx
+++ b/SO SACH/2016 - 2018/2017/141 - 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="141-BH" sheetId="4" r:id="rId1"/>
@@ -1671,57 +1671,66 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="16" xfId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="52" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="23" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="23" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="23" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="52" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1730,15 +1739,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="55" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="16" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="16" xfId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -2147,12 +2147,12 @@
   <sheetPr codeName="Sheet19" enableFormatConditionsCalculation="0">
     <tabColor indexed="12"/>
   </sheetPr>
-  <dimension ref="A2:T102"/>
+  <dimension ref="A2:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2175,160 +2175,160 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
     </row>
     <row r="4" spans="1:11">
       <c r="F4" s="3"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="161"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="154" t="s">
+      <c r="C11" s="159"/>
+      <c r="D11" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="154" t="s">
+      <c r="E11" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="146" t="s">
+      <c r="G11" s="159"/>
+      <c r="H11" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="158"/>
+      <c r="I11" s="151"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="154"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="150" t="s">
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="152" t="s">
+      <c r="G12" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="156" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="154"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
     </row>
     <row r="14" spans="1:11" s="136" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="26" t="s">
@@ -2951,10 +2951,10 @@
         <v>42766</v>
       </c>
       <c r="B34" s="35"/>
-      <c r="C34" s="166">
+      <c r="C34" s="146">
         <v>42794</v>
       </c>
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E34" s="34" t="s">
@@ -3171,17 +3171,17 @@
         <v>42766</v>
       </c>
       <c r="B41" s="35"/>
-      <c r="C41" s="166">
+      <c r="C41" s="146">
         <v>42856</v>
       </c>
-      <c r="D41" s="165" t="s">
+      <c r="D41" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="G41" s="167">
+      <c r="G41" s="147">
         <v>180100500</v>
       </c>
       <c r="H41" s="85">
@@ -3359,17 +3359,17 @@
         <v>42766</v>
       </c>
       <c r="B47" s="35"/>
-      <c r="C47" s="166">
+      <c r="C47" s="146">
         <v>42886</v>
       </c>
-      <c r="D47" s="165" t="s">
+      <c r="D47" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E47" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="18"/>
-      <c r="G47" s="167">
+      <c r="G47" s="147">
         <v>92552000</v>
       </c>
       <c r="H47" s="85">
@@ -3545,16 +3545,16 @@
         <v>42766</v>
       </c>
       <c r="B53" s="35"/>
-      <c r="C53" s="166">
+      <c r="C53" s="146">
         <v>42943</v>
       </c>
-      <c r="D53" s="165" t="s">
+      <c r="D53" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="167">
+      <c r="F53" s="147">
         <v>904600</v>
       </c>
       <c r="G53" s="18"/>
@@ -3641,14 +3641,14 @@
       <c r="C56" s="14">
         <v>42947</v>
       </c>
-      <c r="D56" s="165" t="s">
+      <c r="D56" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F56" s="18"/>
-      <c r="G56" s="167">
+      <c r="G56" s="147">
         <v>73425000</v>
       </c>
       <c r="H56" s="85">
@@ -3825,14 +3825,14 @@
       <c r="C62" s="14">
         <v>43007</v>
       </c>
-      <c r="D62" s="165" t="s">
+      <c r="D62" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F62" s="18"/>
-      <c r="G62" s="167">
+      <c r="G62" s="147">
         <v>54119400</v>
       </c>
       <c r="H62" s="85">
@@ -4102,17 +4102,17 @@
         <v>42766</v>
       </c>
       <c r="B71" s="35"/>
-      <c r="C71" s="166">
+      <c r="C71" s="146">
         <v>43055</v>
       </c>
-      <c r="D71" s="165" t="s">
+      <c r="D71" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="167">
+      <c r="G71" s="147">
         <v>96406600</v>
       </c>
       <c r="H71" s="85">
@@ -4226,17 +4226,17 @@
         <v>42766</v>
       </c>
       <c r="B75" s="35"/>
-      <c r="C75" s="166">
+      <c r="C75" s="146">
         <v>43069</v>
       </c>
-      <c r="D75" s="165" t="s">
+      <c r="D75" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E75" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F75" s="18"/>
-      <c r="G75" s="167">
+      <c r="G75" s="147">
         <v>52920000</v>
       </c>
       <c r="H75" s="85">
@@ -4266,12 +4266,12 @@
         <v>39</v>
       </c>
       <c r="F76" s="9">
-        <v>2500000000</v>
+        <v>3100000000</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="85">
         <f t="shared" si="2"/>
-        <v>2500000000</v>
+        <v>3100000000</v>
       </c>
       <c r="I76" s="85">
         <f t="shared" si="3"/>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="H77" s="85">
         <f t="shared" si="2"/>
-        <v>2212870000</v>
+        <v>2812870000</v>
       </c>
       <c r="I77" s="85">
         <f t="shared" si="3"/>
@@ -4331,11 +4331,11 @@
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="18">
-        <v>347197500</v>
+        <v>672176700</v>
       </c>
       <c r="H78" s="85">
         <f t="shared" si="2"/>
-        <v>1865672500</v>
+        <v>2140693300</v>
       </c>
       <c r="I78" s="85">
         <f t="shared" si="3"/>
@@ -4363,11 +4363,11 @@
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="18">
-        <v>209300000</v>
+        <v>515970000</v>
       </c>
       <c r="H79" s="85">
         <f t="shared" si="2"/>
-        <v>1656372500</v>
+        <v>1624723300</v>
       </c>
       <c r="I79" s="85">
         <f t="shared" si="3"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="H80" s="85">
         <f t="shared" si="2"/>
-        <v>1371962500</v>
+        <v>1340313300</v>
       </c>
       <c r="I80" s="85">
         <f t="shared" si="3"/>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H81" s="85">
         <f t="shared" si="2"/>
-        <v>1094237500</v>
+        <v>1062588300</v>
       </c>
       <c r="I81" s="85">
         <f t="shared" si="3"/>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="H82" s="85">
         <f t="shared" si="2"/>
-        <v>84858500</v>
+        <v>53209300</v>
       </c>
       <c r="I82" s="85">
         <f t="shared" si="3"/>
@@ -4478,18 +4478,18 @@
         <v>42766</v>
       </c>
       <c r="B83" s="35"/>
-      <c r="C83" s="166">
+      <c r="C83" s="146">
         <v>43100</v>
       </c>
-      <c r="D83" s="165" t="s">
+      <c r="D83" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E83" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F83" s="18"/>
-      <c r="G83" s="167">
-        <v>84858500</v>
+      <c r="G83" s="147">
+        <v>53209300</v>
       </c>
       <c r="H83" s="85">
         <f t="shared" si="2"/>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="F85" s="4">
         <f>SUM(F16:F84)</f>
-        <v>30000904600</v>
+        <v>30600904600</v>
       </c>
       <c r="G85" s="4">
         <f>SUM(G16:G84)</f>
-        <v>30000904600</v>
+        <v>30600904600</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>23</v>
@@ -4608,47 +4608,47 @@
       <c r="B90" s="136"/>
       <c r="C90" s="136"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="155" t="s">
+      <c r="E90" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="F90" s="155"/>
-      <c r="G90" s="155"/>
-      <c r="H90" s="155"/>
-      <c r="I90" s="155"/>
+      <c r="F90" s="154"/>
+      <c r="G90" s="154"/>
+      <c r="H90" s="154"/>
+      <c r="I90" s="154"/>
       <c r="J90" s="53"/>
       <c r="K90" s="96"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1">
-      <c r="A91" s="155" t="s">
+      <c r="A91" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="155"/>
-      <c r="C91" s="155"/>
-      <c r="D91" s="155"/>
-      <c r="E91" s="155" t="s">
+      <c r="B91" s="154"/>
+      <c r="C91" s="154"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="F91" s="155"/>
-      <c r="G91" s="155"/>
-      <c r="H91" s="155"/>
-      <c r="I91" s="155"/>
+      <c r="F91" s="154"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="154"/>
       <c r="J91" s="53"/>
       <c r="K91" s="117"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1">
-      <c r="A92" s="155" t="s">
+      <c r="A92" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="155"/>
-      <c r="C92" s="155"/>
-      <c r="D92" s="155"/>
-      <c r="E92" s="155" t="s">
+      <c r="B92" s="154"/>
+      <c r="C92" s="154"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="155"/>
-      <c r="G92" s="155"/>
-      <c r="H92" s="155"/>
-      <c r="I92" s="155"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
       <c r="J92" s="53"/>
       <c r="K92" s="116"/>
     </row>
@@ -4691,12 +4691,12 @@
       <c r="K97" s="117"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="145" t="s">
+      <c r="A98" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="145"/>
-      <c r="C98" s="145"/>
-      <c r="D98" s="145"/>
+      <c r="B98" s="162"/>
+      <c r="C98" s="162"/>
+      <c r="D98" s="162"/>
       <c r="J98" s="49"/>
       <c r="K98" s="118"/>
     </row>
@@ -4724,15 +4724,13 @@
     <sortCondition ref="A16:A74"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D11:D13"/>
@@ -4743,13 +4741,15 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E92:I92"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F36">
@@ -4773,9 +4773,9 @@
   <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4831,11 +4831,11 @@
       <c r="D2" s="25"/>
       <c r="E2" s="136"/>
       <c r="F2" s="136"/>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
       <c r="N2" s="136"/>
       <c r="O2" s="136"/>
       <c r="P2" s="25"/>
@@ -4852,11 +4852,11 @@
       <c r="D3" s="25"/>
       <c r="E3" s="136"/>
       <c r="F3" s="136"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
       <c r="N3" s="136"/>
       <c r="O3" s="136"/>
       <c r="P3" s="25"/>
@@ -4871,9 +4871,9 @@
       <c r="D4" s="25"/>
       <c r="E4" s="136"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
       <c r="P4" s="25"/>
@@ -4882,17 +4882,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -4900,17 +4900,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -4918,17 +4918,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -4936,19 +4936,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -4956,17 +4956,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -4976,13 +4976,13 @@
     <row r="10" spans="1:19">
       <c r="A10" s="136"/>
       <c r="B10" s="136"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
       <c r="N10" s="136"/>
       <c r="O10" s="1"/>
       <c r="Q10" s="1"/>
@@ -4990,95 +4990,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="154" t="s">
+      <c r="C11" s="159"/>
+      <c r="D11" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="154" t="s">
+      <c r="E11" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="146" t="s">
+      <c r="G11" s="159"/>
+      <c r="H11" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="158"/>
-      <c r="N11" s="146" t="s">
+      <c r="I11" s="151"/>
+      <c r="N11" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="147"/>
-      <c r="P11" s="154" t="s">
+      <c r="O11" s="159"/>
+      <c r="P11" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="154" t="s">
+      <c r="Q11" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="146" t="s">
+      <c r="R11" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="147"/>
+      <c r="S11" s="159"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A12" s="154"/>
-      <c r="B12" s="150" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="150" t="s">
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="152" t="s">
+      <c r="G12" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="150" t="s">
+      <c r="N12" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="150" t="s">
+      <c r="O12" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="150" t="s">
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="152" t="s">
+      <c r="S12" s="160" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A13" s="154"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="153"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="161"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="26" t="s">
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="33">
-        <f>IF(A16&lt;&gt;"",MONTH(A16),"")</f>
+        <f t="shared" ref="J16:J47" si="0">IF(A16&lt;&gt;"",MONTH(A16),"")</f>
         <v>1</v>
       </c>
       <c r="K16" s="127"/>
@@ -5206,15 +5206,15 @@
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="5">
-        <f t="shared" ref="H17:H78" si="0">MAX(H16+F17-G17-I16,0)</f>
+        <f t="shared" ref="H17:H78" si="1">MAX(H16+F17-G17-I16,0)</f>
         <v>3300000000</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ref="I17:I78" si="1">MAX(I16+G17-F17-H16,0)</f>
+        <f t="shared" ref="I17:I78" si="2">MAX(I16+G17-F17-H16,0)</f>
         <v>0</v>
       </c>
       <c r="J17" s="33">
-        <f>IF(A17&lt;&gt;"",MONTH(A17),"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K17" s="127"/>
@@ -5242,15 +5242,15 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>4300000000</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="33">
         <f t="shared" si="0"/>
-        <v>4300000000</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="33">
-        <f>IF(A18&lt;&gt;"",MONTH(A18),"")</f>
         <v>2</v>
       </c>
       <c r="K18" s="127"/>
@@ -5280,15 +5280,15 @@
         <v>97105000</v>
       </c>
       <c r="H19" s="5">
+        <f t="shared" si="1"/>
+        <v>4202895000</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
         <f t="shared" si="0"/>
-        <v>4202895000</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="33">
-        <f>IF(A19&lt;&gt;"",MONTH(A19),"")</f>
         <v>1</v>
       </c>
       <c r="K19" s="124"/>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="S19" s="21">
         <f ca="1">IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TN'!G$1,SMALL(Dong1,ROWS($1:2)),))</f>
-        <v>335302500</v>
+        <v>647323300</v>
       </c>
       <c r="T19" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TN'!K$1,SMALL(Dong1,ROWS($1:2)),))=0,"",IF(ROWS($1:2)&gt;COUNT(Dong1),"",OFFSET('141-TN'!K$1,SMALL(Dong1,ROWS($1:2)),)))</f>
@@ -5340,15 +5340,15 @@
         <v>1521812500</v>
       </c>
       <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>2681082500</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="33">
         <f t="shared" si="0"/>
-        <v>2681082500</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="33">
-        <f>IF(A20&lt;&gt;"",MONTH(A20),"")</f>
         <v>1</v>
       </c>
       <c r="K20" s="124"/>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="S20" s="21">
         <f ca="1">IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TN'!G$1,SMALL(Dong1,ROWS($1:3)),))</f>
-        <v>175750000</v>
+        <v>487880000</v>
       </c>
       <c r="T20" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TN'!K$1,SMALL(Dong1,ROWS($1:3)),))=0,"",IF(ROWS($1:3)&gt;COUNT(Dong1),"",OFFSET('141-TN'!K$1,SMALL(Dong1,ROWS($1:3)),)))</f>
@@ -5400,15 +5400,15 @@
         <v>262510000</v>
       </c>
       <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>2418572500</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="33">
         <f t="shared" si="0"/>
-        <v>2418572500</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="33">
-        <f>IF(A21&lt;&gt;"",MONTH(A21),"")</f>
         <v>1</v>
       </c>
       <c r="K21" s="124"/>
@@ -5460,15 +5460,15 @@
         <v>513525000</v>
       </c>
       <c r="H22" s="5">
+        <f t="shared" si="1"/>
+        <v>1905047500</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="33">
         <f t="shared" si="0"/>
-        <v>1905047500</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="33">
-        <f>IF(A22&lt;&gt;"",MONTH(A22),"")</f>
         <v>1</v>
       </c>
       <c r="K22" s="124"/>
@@ -5520,15 +5520,15 @@
         <v>435225000</v>
       </c>
       <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>1469822500</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="33">
         <f t="shared" si="0"/>
-        <v>1469822500</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="33">
-        <f>IF(A23&lt;&gt;"",MONTH(A23),"")</f>
         <v>1</v>
       </c>
       <c r="K23" s="124"/>
@@ -5580,15 +5580,15 @@
         <v>511754800</v>
       </c>
       <c r="H24" s="5">
+        <f t="shared" si="1"/>
+        <v>958067700</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="33">
         <f t="shared" si="0"/>
-        <v>958067700</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="33">
-        <f>IF(A24&lt;&gt;"",MONTH(A24),"")</f>
         <v>1</v>
       </c>
       <c r="K24" s="125"/>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="S24" s="21">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TN'!G$1,SMALL(Dong1,ROWS($1:7)),))</f>
-        <v>38233500</v>
+        <v>14082700</v>
       </c>
       <c r="T24" s="1" t="str">
         <f ca="1">IF(IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TN'!K$1,SMALL(Dong1,ROWS($1:7)),))=0,"",IF(ROWS($1:7)&gt;COUNT(Dong1),"",OFFSET('141-TN'!K$1,SMALL(Dong1,ROWS($1:7)),)))</f>
@@ -5640,15 +5640,15 @@
         <v>879900000</v>
       </c>
       <c r="H25" s="5">
+        <f t="shared" si="1"/>
+        <v>78167700</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
         <f t="shared" si="0"/>
-        <v>78167700</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="33">
-        <f>IF(A25&lt;&gt;"",MONTH(A25),"")</f>
         <v>1</v>
       </c>
       <c r="K25" s="124"/>
@@ -5699,15 +5699,15 @@
         <v>78167700</v>
       </c>
       <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="33">
-        <f>IF(A26&lt;&gt;"",MONTH(A26),"")</f>
         <v>2</v>
       </c>
       <c r="K26" s="124"/>
@@ -5735,15 +5735,15 @@
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>1500000000</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="33">
         <f t="shared" si="0"/>
-        <v>1500000000</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="33">
-        <f>IF(A27&lt;&gt;"",MONTH(A27),"")</f>
         <v>3</v>
       </c>
       <c r="K27" s="127"/>
@@ -5773,15 +5773,15 @@
         <v>173178000</v>
       </c>
       <c r="H28" s="5">
+        <f t="shared" si="1"/>
+        <v>1326822000</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="33">
         <f t="shared" si="0"/>
-        <v>1326822000</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="33">
-        <f>IF(A28&lt;&gt;"",MONTH(A28),"")</f>
         <v>3</v>
       </c>
       <c r="K28" s="124"/>
@@ -5833,15 +5833,15 @@
         <v>418782000</v>
       </c>
       <c r="H29" s="5">
+        <f t="shared" si="1"/>
+        <v>908040000</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="33">
         <f t="shared" si="0"/>
-        <v>908040000</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="33">
-        <f>IF(A29&lt;&gt;"",MONTH(A29),"")</f>
         <v>4</v>
       </c>
       <c r="K29" s="124"/>
@@ -5893,15 +5893,15 @@
         <v>830011000</v>
       </c>
       <c r="H30" s="5">
+        <f t="shared" si="1"/>
+        <v>78029000</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="33">
         <f t="shared" si="0"/>
-        <v>78029000</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="33">
-        <f>IF(A30&lt;&gt;"",MONTH(A30),"")</f>
         <v>4</v>
       </c>
       <c r="K30" s="124"/>
@@ -5952,15 +5952,15 @@
         <v>78029000</v>
       </c>
       <c r="H31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="33">
-        <f>IF(A31&lt;&gt;"",MONTH(A31),"")</f>
         <v>5</v>
       </c>
       <c r="K31" s="124"/>
@@ -5988,15 +5988,15 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="5">
+        <f t="shared" si="1"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="33">
         <f t="shared" si="0"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="33">
-        <f>IF(A32&lt;&gt;"",MONTH(A32),"")</f>
         <v>5</v>
       </c>
       <c r="K32" s="127"/>
@@ -6026,15 +6026,15 @@
         <v>1110910000</v>
       </c>
       <c r="H33" s="5">
+        <f t="shared" si="1"/>
+        <v>1289090000</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="33">
         <f t="shared" si="0"/>
-        <v>1289090000</v>
-      </c>
-      <c r="I33" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="33">
-        <f>IF(A33&lt;&gt;"",MONTH(A33),"")</f>
         <v>5</v>
       </c>
       <c r="K33" s="124"/>
@@ -6086,15 +6086,15 @@
         <v>372372000</v>
       </c>
       <c r="H34" s="5">
+        <f t="shared" si="1"/>
+        <v>916718000</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="33">
         <f t="shared" si="0"/>
-        <v>916718000</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="33">
-        <f>IF(A34&lt;&gt;"",MONTH(A34),"")</f>
         <v>5</v>
       </c>
       <c r="K34" s="124"/>
@@ -6146,15 +6146,15 @@
         <v>372736000</v>
       </c>
       <c r="H35" s="5">
+        <f t="shared" si="1"/>
+        <v>543982000</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="33">
         <f t="shared" si="0"/>
-        <v>543982000</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="33">
-        <f>IF(A35&lt;&gt;"",MONTH(A35),"")</f>
         <v>5</v>
       </c>
       <c r="K35" s="124"/>
@@ -6206,15 +6206,15 @@
         <v>487290000</v>
       </c>
       <c r="H36" s="5">
+        <f t="shared" si="1"/>
+        <v>56692000</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="33">
         <f t="shared" si="0"/>
-        <v>56692000</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="33">
-        <f>IF(A36&lt;&gt;"",MONTH(A36),"")</f>
         <v>5</v>
       </c>
       <c r="K36" s="124"/>
@@ -6265,15 +6265,15 @@
         <v>56692000</v>
       </c>
       <c r="H37" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="33">
-        <f>IF(A37&lt;&gt;"",MONTH(A37),"")</f>
         <v>5</v>
       </c>
       <c r="N37" s="83"/>
@@ -6300,15 +6300,15 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="5">
+        <f t="shared" si="1"/>
+        <v>1900000000</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="33">
         <f t="shared" si="0"/>
-        <v>1900000000</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="33">
-        <f>IF(A38&lt;&gt;"",MONTH(A38),"")</f>
         <v>6</v>
       </c>
       <c r="K38" s="124"/>
@@ -6338,15 +6338,15 @@
         <v>920010000</v>
       </c>
       <c r="H39" s="5">
+        <f t="shared" si="1"/>
+        <v>979990000</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="33">
         <f t="shared" si="0"/>
-        <v>979990000</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="33">
-        <f>IF(A39&lt;&gt;"",MONTH(A39),"")</f>
         <v>6</v>
       </c>
       <c r="K39" s="124"/>
@@ -6398,15 +6398,15 @@
         <v>914040400</v>
       </c>
       <c r="H40" s="5">
+        <f t="shared" si="1"/>
+        <v>65949600</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="33">
         <f t="shared" si="0"/>
-        <v>65949600</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="33">
-        <f>IF(A40&lt;&gt;"",MONTH(A40),"")</f>
         <v>6</v>
       </c>
       <c r="N40" s="21" t="str">
@@ -6456,15 +6456,15 @@
         <v>65949600</v>
       </c>
       <c r="H41" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="33">
-        <f>IF(A41&lt;&gt;"",MONTH(A41),"")</f>
         <v>6</v>
       </c>
       <c r="N41" s="83"/>
@@ -6491,15 +6491,15 @@
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="5">
+        <f t="shared" si="1"/>
+        <v>2300000000</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="33">
         <f t="shared" si="0"/>
-        <v>2300000000</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="33">
-        <f>IF(A42&lt;&gt;"",MONTH(A42),"")</f>
         <v>7</v>
       </c>
       <c r="K42" s="127"/>
@@ -6529,15 +6529,15 @@
         <v>1149071000</v>
       </c>
       <c r="H43" s="5">
+        <f t="shared" si="1"/>
+        <v>1150929000</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="33">
         <f t="shared" si="0"/>
-        <v>1150929000</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="33">
-        <f>IF(A43&lt;&gt;"",MONTH(A43),"")</f>
         <v>7</v>
       </c>
       <c r="N43" s="21" t="str">
@@ -6588,15 +6588,15 @@
         <v>1126519000</v>
       </c>
       <c r="H44" s="5">
+        <f t="shared" si="1"/>
+        <v>24410000</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="33">
         <f t="shared" si="0"/>
-        <v>24410000</v>
-      </c>
-      <c r="I44" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="33">
-        <f>IF(A44&lt;&gt;"",MONTH(A44),"")</f>
         <v>7</v>
       </c>
       <c r="N44" s="21" t="str">
@@ -6646,15 +6646,15 @@
         <v>24410000</v>
       </c>
       <c r="H45" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="33">
-        <f>IF(A45&lt;&gt;"",MONTH(A45),"")</f>
         <v>7</v>
       </c>
       <c r="N45" s="83"/>
@@ -6681,15 +6681,15 @@
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="5">
+        <f t="shared" si="1"/>
+        <v>500000000</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="33">
         <f t="shared" si="0"/>
-        <v>500000000</v>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="33">
-        <f>IF(A46&lt;&gt;"",MONTH(A46),"")</f>
         <v>8</v>
       </c>
       <c r="K46" s="127"/>
@@ -6717,15 +6717,15 @@
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="5">
+        <f t="shared" si="1"/>
+        <v>1500000000</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="33">
         <f t="shared" si="0"/>
-        <v>1500000000</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="33">
-        <f>IF(A47&lt;&gt;"",MONTH(A47),"")</f>
         <v>9</v>
       </c>
       <c r="K47" s="127"/>
@@ -6753,15 +6753,15 @@
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2700000000</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="33">
-        <f>IF(A48&lt;&gt;"",MONTH(A48),"")</f>
+        <f t="shared" ref="J48:J78" si="3">IF(A48&lt;&gt;"",MONTH(A48),"")</f>
         <v>9</v>
       </c>
       <c r="K48" s="127"/>
@@ -6791,15 +6791,15 @@
         <v>868504000</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" ref="H49:H66" si="2">MAX(H48+F49-G49-I48,0)</f>
+        <f t="shared" ref="H49" si="4">MAX(H48+F49-G49-I48,0)</f>
         <v>1831496000</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" ref="I49:I66" si="3">MAX(I48+G49-F49-H48,0)</f>
+        <f t="shared" ref="I49" si="5">MAX(I48+G49-F49-H48,0)</f>
         <v>0</v>
       </c>
       <c r="J49" s="33">
-        <f>IF(A49&lt;&gt;"",MONTH(A49),"")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N49" s="21" t="str">
@@ -6850,15 +6850,15 @@
         <v>385947000</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" ref="H50:H66" si="4">MAX(H49+F50-G50-I49,0)</f>
+        <f t="shared" ref="H50:H66" si="6">MAX(H49+F50-G50-I49,0)</f>
         <v>1445549000</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" ref="I50:I66" si="5">MAX(I49+G50-F50-H49,0)</f>
+        <f t="shared" ref="I50:I66" si="7">MAX(I49+G50-F50-H49,0)</f>
         <v>0</v>
       </c>
       <c r="J50" s="33">
-        <f>IF(A50&lt;&gt;"",MONTH(A50),"")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K50" s="124"/>
@@ -6910,15 +6910,15 @@
         <v>834415400</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>611133600</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J51" s="33">
-        <f>IF(A51&lt;&gt;"",MONTH(A51),"")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K51" s="124"/>
@@ -6970,15 +6970,15 @@
         <v>193380500</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>417753100</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J52" s="33">
-        <f>IF(A52&lt;&gt;"",MONTH(A52),"")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K52" s="124"/>
@@ -7030,15 +7030,15 @@
         <v>386372500</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31380600</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J53" s="33">
-        <f>IF(A53&lt;&gt;"",MONTH(A53),"")</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K53" s="124"/>
@@ -7089,15 +7089,15 @@
         <v>31380600</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J54" s="33">
-        <f>IF(A54&lt;&gt;"",MONTH(A54),"")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N54" s="83"/>
@@ -7124,15 +7124,15 @@
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1400000000</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J55" s="33">
-        <f>IF(A55&lt;&gt;"",MONTH(A55),"")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K55" s="115"/>
@@ -7171,15 +7171,15 @@
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2900000000</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J56" s="33">
-        <f>IF(A56&lt;&gt;"",MONTH(A56),"")</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K56" s="111"/>
@@ -7209,15 +7209,15 @@
         <v>626047500</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2273952500</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J57" s="33">
-        <f>IF(A57&lt;&gt;"",MONTH(A57),"")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K57" s="124"/>
@@ -7269,15 +7269,15 @@
         <v>626242500</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1647710000</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J58" s="33">
-        <f>IF(A58&lt;&gt;"",MONTH(A58),"")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K58" s="124"/>
@@ -7329,15 +7329,15 @@
         <v>522550000</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1125160000</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J59" s="33">
-        <f>IF(A59&lt;&gt;"",MONTH(A59),"")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K59" s="124"/>
@@ -7389,15 +7389,15 @@
         <v>1032604600</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>92555400</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J60" s="33">
-        <f>IF(A60&lt;&gt;"",MONTH(A60),"")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K60" s="124"/>
@@ -7448,15 +7448,15 @@
         <v>92555400</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J61" s="33">
-        <f>IF(A61&lt;&gt;"",MONTH(A61),"")</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="N61" s="83"/>
@@ -7483,15 +7483,15 @@
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1000000000</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J62" s="33">
-        <f>IF(A62&lt;&gt;"",MONTH(A62),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K62" s="128"/>
@@ -7521,15 +7521,15 @@
         <v>475265000</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>524735000</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J63" s="33">
-        <f>IF(A63&lt;&gt;"",MONTH(A63),"")</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K63" s="124"/>
@@ -7581,15 +7581,15 @@
         <v>490435000</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34300000</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J64" s="33">
-        <f>IF(A64&lt;&gt;"",MONTH(A64),"")</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K64" s="124"/>
@@ -7640,15 +7640,15 @@
         <v>34300000</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J65" s="33">
-        <f>IF(A65&lt;&gt;"",MONTH(A65),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="N65" s="83"/>
@@ -7675,15 +7675,15 @@
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3700000000</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J66" s="33">
-        <f>IF(A66&lt;&gt;"",MONTH(A66),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K66" s="129"/>
@@ -7713,15 +7713,15 @@
         <v>981665000</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2718335000</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="33">
-        <f>IF(A67&lt;&gt;"",MONTH(A67),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K67" s="111"/>
@@ -7773,15 +7773,15 @@
         <v>512635000</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2205700000</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J68" s="33">
-        <f>IF(A68&lt;&gt;"",MONTH(A68),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K68" s="111"/>
@@ -7833,15 +7833,15 @@
         <v>1248722000</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>956978000</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69" s="33">
-        <f>IF(A69&lt;&gt;"",MONTH(A69),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K69" s="111"/>
@@ -7893,15 +7893,15 @@
         <v>888523000</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68455000</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70" s="33">
-        <f>IF(A70&lt;&gt;"",MONTH(A70),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K70" s="111"/>
@@ -7952,15 +7952,15 @@
         <v>68455000</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71" s="33">
-        <f>IF(A71&lt;&gt;"",MONTH(A71),"")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="N71" s="83"/>
@@ -7983,19 +7983,19 @@
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="9">
-        <v>2500000000</v>
+        <v>3100000000</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="5">
-        <f t="shared" si="0"/>
-        <v>2500000000</v>
+        <f t="shared" si="1"/>
+        <v>3100000000</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72" s="33">
-        <f>IF(A72&lt;&gt;"",MONTH(A72),"")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K72" s="124"/>
@@ -8022,18 +8022,18 @@
       <c r="E73" s="34"/>
       <c r="F73" s="9"/>
       <c r="G73" s="18">
-        <v>335302500</v>
+        <v>647323300</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="0"/>
-        <v>2164697500</v>
+        <f t="shared" si="1"/>
+        <v>2452676700</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J73" s="33">
-        <f>IF(A73&lt;&gt;"",MONTH(A73),"")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K73" s="124"/>
@@ -8071,18 +8071,18 @@
       <c r="E74" s="34"/>
       <c r="F74" s="9"/>
       <c r="G74" s="18">
-        <v>175750000</v>
+        <v>487880000</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="0"/>
-        <v>1988947500</v>
+        <f t="shared" si="1"/>
+        <v>1964796700</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J74" s="33">
-        <f>IF(A74&lt;&gt;"",MONTH(A74),"")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K74" s="124"/>
@@ -8112,15 +8112,15 @@
         <v>561290000</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="0"/>
-        <v>1427657500</v>
+        <f t="shared" si="1"/>
+        <v>1403506700</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J75" s="33">
-        <f>IF(A75&lt;&gt;"",MONTH(A75),"")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K75" s="124"/>
@@ -8150,15 +8150,15 @@
         <v>570244000</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="0"/>
-        <v>857413500</v>
+        <f t="shared" si="1"/>
+        <v>833262700</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J76" s="33">
-        <f>IF(A76&lt;&gt;"",MONTH(A76),"")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K76" s="124"/>
@@ -8188,15 +8188,15 @@
         <v>819180000</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="0"/>
-        <v>38233500</v>
+        <f t="shared" si="1"/>
+        <v>14082700</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J77" s="33">
-        <f>IF(A77&lt;&gt;"",MONTH(A77),"")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K77" s="127"/>
@@ -8222,18 +8222,18 @@
       <c r="E78" s="12"/>
       <c r="F78" s="9"/>
       <c r="G78" s="22">
-        <v>38233500</v>
+        <v>14082700</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J78" s="33">
-        <f>IF(A78&lt;&gt;"",MONTH(A78),"")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="N78" s="83"/>
@@ -8254,7 +8254,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="33" t="str">
-        <f t="shared" ref="J79:J81" si="6">IF(A79&lt;&gt;"",MONTH(A79),"")</f>
+        <f t="shared" ref="J79:J81" si="8">IF(A79&lt;&gt;"",MONTH(A79),"")</f>
         <v/>
       </c>
       <c r="N79" s="135"/>
@@ -8276,11 +8276,11 @@
       </c>
       <c r="F80" s="7">
         <f>SUM(F16:F78)</f>
-        <v>25200000000</v>
+        <v>25800000000</v>
       </c>
       <c r="G80" s="7">
         <f>SUM(G16:G78)</f>
-        <v>25200000000</v>
+        <v>25800000000</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>23</v>
@@ -8289,7 +8289,7 @@
         <v>23</v>
       </c>
       <c r="J80" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N80" s="135"/>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N81" s="135"/>
@@ -8395,13 +8395,13 @@
       <c r="B85" s="136"/>
       <c r="C85" s="136"/>
       <c r="D85" s="25"/>
-      <c r="E85" s="155" t="s">
+      <c r="E85" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="F85" s="155"/>
-      <c r="G85" s="155"/>
-      <c r="H85" s="155"/>
-      <c r="I85" s="155"/>
+      <c r="F85" s="154"/>
+      <c r="G85" s="154"/>
+      <c r="H85" s="154"/>
+      <c r="I85" s="154"/>
       <c r="J85" s="47"/>
       <c r="L85" s="52"/>
       <c r="M85" s="52"/>
@@ -8413,19 +8413,19 @@
       <c r="S85" s="52"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="155" t="s">
+      <c r="A86" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="155"/>
-      <c r="C86" s="155"/>
-      <c r="D86" s="155"/>
-      <c r="E86" s="155" t="s">
+      <c r="B86" s="154"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="F86" s="155"/>
-      <c r="G86" s="155"/>
-      <c r="H86" s="155"/>
-      <c r="I86" s="155"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154"/>
+      <c r="H86" s="154"/>
+      <c r="I86" s="154"/>
       <c r="J86" s="47"/>
       <c r="L86" s="52"/>
       <c r="M86" s="52"/>
@@ -8437,19 +8437,19 @@
       <c r="S86" s="52"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="155"/>
-      <c r="C87" s="155"/>
-      <c r="D87" s="155"/>
-      <c r="E87" s="155" t="s">
+      <c r="B87" s="154"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="F87" s="155"/>
-      <c r="G87" s="155"/>
-      <c r="H87" s="155"/>
-      <c r="I87" s="155"/>
+      <c r="F87" s="154"/>
+      <c r="G87" s="154"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
       <c r="J87" s="53"/>
       <c r="K87" s="124"/>
       <c r="L87" s="53"/>
@@ -8526,12 +8526,12 @@
       <c r="R93" s="13"/>
     </row>
     <row r="94" spans="1:21" s="25" customFormat="1">
-      <c r="A94" s="145" t="s">
+      <c r="A94" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="145"/>
-      <c r="C94" s="145"/>
-      <c r="D94" s="145"/>
+      <c r="B94" s="162"/>
+      <c r="C94" s="162"/>
+      <c r="D94" s="162"/>
       <c r="E94" s="136"/>
       <c r="F94" s="136"/>
       <c r="G94" s="41"/>
@@ -8617,24 +8617,6 @@
     <sortCondition ref="A16:A68"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="E87:I87"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:I86"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="N11:O11"/>
@@ -8651,6 +8633,24 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="E87:I87"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:I86"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="Q11:Q13"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.9" right="0.3" top="0.3" bottom="0.3" header="0.16" footer="0.15"/>
@@ -8668,7 +8668,7 @@
   </sheetPr>
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -8709,38 +8709,38 @@
       <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="163"/>
+      <c r="B3" s="166"/>
       <c r="D3" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="155" t="str">
+      <c r="A4" s="154" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!#REF!,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!#REF!,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!#REF!,SMALL(Dong02,ROWS($1:1)),)))</f>
         <v/>
       </c>
-      <c r="B4" s="155"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="164"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="59" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Số:   "&amp;OFFSET('141-BH'!#REF!,SMALL(Dong02,ROWS($1:1)),))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="164"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="164"/>
+      <c r="A7" s="167"/>
       <c r="B7" s="59" t="s">
         <v>50</v>
       </c>
@@ -9698,38 +9698,38 @@
       <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="163"/>
+      <c r="B3" s="166"/>
       <c r="D3" s="84">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="155" t="str">
+      <c r="A4" s="154" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TN'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TN'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TN'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v/>
       </c>
-      <c r="B4" s="155"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="164"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="59" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Số:   "&amp;OFFSET('141-TN'!N$1,SMALL(Dong04,ROWS($1:1)),))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="164"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="164"/>
+      <c r="A7" s="167"/>
       <c r="B7" s="59" t="s">
         <v>50</v>
       </c>
